--- a/web/test.xlsx
+++ b/web/test.xlsx
@@ -15,12 +15,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>Привет!</t>
   </si>
   <si>
     <t>Hello world, hello world, hello world, hello world, hello world, hello world, hello world, hello world, hello world, hello world, hello world, hello world, hello world, hello world, hello world, hello world, hello world, hello world, hello world, hello world, hello world, hello world, hello world, hello world</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Номер телефона</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Фамилия</t>
+  </si>
+  <si>
+    <t>roles</t>
+  </si>
+  <si>
+    <t>images</t>
+  </si>
+  <si>
+    <t>Богдан</t>
+  </si>
+  <si>
+    <t>Кода</t>
+  </si>
+  <si>
+    <t>namne</t>
   </si>
 </sst>
 </file>
@@ -28,7 +55,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -56,8 +83,17 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -70,8 +106,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="darkGrid">
+        <fgColor rgb="FFAA0000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border/>
     <border>
       <left style="slantDashDot">
@@ -87,11 +129,25 @@
         <color rgb="FFFF00FF"/>
       </bottom>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -100,6 +156,12 @@
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -400,23 +462,77 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="11" max="11" width="4" customWidth="true" style="0"/>
+    <col min="12" max="12" width="20" customWidth="true" style="0"/>
+    <col min="13" max="13" width="20" customWidth="true" style="0"/>
+    <col min="14" max="14" width="25" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:16">
       <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:16">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
+    </row>
+    <row r="8" spans="1:16" customHeight="1" ht="25">
+      <c r="K8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4">
+        <v>78005553535</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="4"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="K10" s="4">
+        <v>3</v>
+      </c>
+      <c r="L10" s="4">
+        <v>79876543210</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="P10" s="4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
